--- a/Jogos_do_Dia/2023-04-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,443 +610,439 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
+      <c r="A2" t="n">
+        <v>7489</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45034.875</v>
+        <v>45034.92013888889</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Cancún</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>6.4</v>
+        <v>3.96</v>
       </c>
       <c r="I2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>7.9</v>
       </c>
       <c r="K2" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="T2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.23</v>
       </c>
-      <c r="U2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.69</v>
+        <v>2.22</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45034.875</v>
+        <v>45034.92361111111</v>
       </c>
       <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Boca Juniors</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="U3" t="n">
-        <v>3.4</v>
+        <v>1.41</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.16</v>
+        <v>1.84</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.6</v>
+        <v>2.36</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.79</v>
+        <v>2.93</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
+      <c r="A4" t="n">
+        <v>7489</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45034.875</v>
+        <v>45035.00347222222</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
+          <t>Cimarrones de Sonora</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
         <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>3.46</v>
       </c>
       <c r="I4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="J4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N4" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="T4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W4" t="n">
         <v>1</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.51</v>
+        <v>2.56</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Ukraine Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45034.95833333334</v>
+        <v>45035.29166666666</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSD Independiente del Valle</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.3</v>
+        <v>2.35</v>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>9.6</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD5" t="n">
         <v>1.25</v>
       </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AE5" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1068,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1093,10 +1089,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
         <v>1.51</v>
@@ -1182,13 +1178,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.42</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1203,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="O7" t="n">
         <v>1.45</v>
@@ -1295,10 +1291,10 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1316,7 +1312,7 @@
         <v>2.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.48</v>
@@ -1402,13 +1398,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
         <v>1.02</v>
@@ -1423,10 +1419,10 @@
         <v>3.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="N9" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1512,13 +1508,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="I10" t="n">
         <v>1.02</v>
@@ -1533,10 +1529,10 @@
         <v>4.05</v>
       </c>
       <c r="M10" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
@@ -1602,307 +1598,307 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
         <v>45035.5</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.94</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>4.42</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="J11" t="n">
-        <v>17.25</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="L11" t="n">
-        <v>4.17</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF11" t="n">
         <v>1.61</v>
       </c>
-      <c r="R11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
         <v>45035.5</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vaprus</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J12" t="n">
-        <v>13.75</v>
+        <v>10.5</v>
       </c>
       <c r="K12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.23</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="U12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1.38</v>
       </c>
-      <c r="P12" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45035.5</v>
+        <v>45035.54166666666</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.06</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X13" t="n">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.76</v>
+        <v>1.37</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.99</v>
+        <v>3.64</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1932,881 +1928,881 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45035.5</v>
+        <v>45035.5625</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>4.47</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>7.12</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J14" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="K14" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="N14" t="n">
-        <v>1.96</v>
+        <v>2.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.15</v>
       </c>
-      <c r="T14" t="n">
-        <v>1.23</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45035.54166666666</v>
+        <v>45035.57291666666</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>2.36</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="X15" t="n">
-        <v>2.27</v>
+        <v>1.47</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.64</v>
+        <v>2.78</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45035.54166666666</v>
+        <v>45035.60416666666</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nõmme Kalju</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.29</v>
+        <v>3.9</v>
       </c>
       <c r="G16" t="n">
-        <v>3.97</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J16" t="n">
         <v>14</v>
       </c>
       <c r="K16" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="M16" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="U16" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2.23</v>
       </c>
       <c r="X16" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45035.5625</v>
+        <v>45035.60416666666</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.56</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>4.58</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>5.36</v>
+        <v>2.38</v>
       </c>
       <c r="I17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J17" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="K17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M17" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="N17" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.3</v>
       </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.15</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.11</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45035.57291666666</v>
+        <v>45035.65625</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AG18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J18" t="n">
-        <v>12</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.89</v>
-      </c>
       <c r="AH18" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45035.60416666666</v>
+        <v>45035.65625</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="I19" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="J19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="L19" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="N19" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="S19" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="T19" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="W19" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="X19" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.73</v>
+        <v>2.23</v>
       </c>
       <c r="AB19" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AE19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF19" t="n">
         <v>1.55</v>
       </c>
-      <c r="AF19" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AG19" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45035.60416666666</v>
+        <v>45035.65625</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.95</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="J20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="L20" t="n">
-        <v>4.08</v>
+        <v>3.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="N20" t="n">
-        <v>2.03</v>
+        <v>1.67</v>
       </c>
       <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.33</v>
       </c>
-      <c r="P20" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="U20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF20" t="n">
         <v>2.1</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2.45</v>
-      </c>
       <c r="AG20" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45035.64583333334</v>
+        <v>45035.65625</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.87</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="L21" t="n">
-        <v>3.74</v>
+        <v>2.95</v>
       </c>
       <c r="M21" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.05</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="W21" t="n">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="X21" t="n">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.56</v>
+        <v>2.79</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22">
@@ -2816,107 +2812,107 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45035.65625</v>
+        <v>45035.66666666666</v>
       </c>
       <c r="C22" t="n">
         <v>43</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="G22" t="n">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.09</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K22" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N22" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="O22" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="T22" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="U22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF22" t="n">
         <v>1.57</v>
       </c>
-      <c r="V22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -2926,544 +2922,544 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45035.65625</v>
+        <v>45035.66666666666</v>
       </c>
       <c r="C23" t="n">
         <v>43</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.52</v>
+        <v>3.7</v>
       </c>
       <c r="G23" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="K23" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="L23" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M23" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="N23" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="T23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD23" t="n">
         <v>1.28</v>
       </c>
-      <c r="U23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AE23" t="n">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.25</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45035.65625</v>
+        <v>45035.66666666666</v>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="K24" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="L24" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="M24" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P24" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="T24" t="n">
         <v>1.33</v>
       </c>
       <c r="U24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X24" t="n">
         <v>1.44</v>
       </c>
-      <c r="V24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Y24" t="n">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45035.65625</v>
+        <v>45035.67708333334</v>
       </c>
       <c r="C25" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>3.48</v>
       </c>
       <c r="I25" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="L25" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.1</v>
       </c>
-      <c r="N25" t="n">
+      <c r="R25" t="n">
         <v>1.67</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S25" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="T25" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="V25" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="X25" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.79</v>
+        <v>2.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45035.66666666666</v>
+        <v>45035.67708333334</v>
       </c>
       <c r="C26" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.74</v>
+        <v>3.85</v>
       </c>
       <c r="G26" t="n">
-        <v>3.88</v>
+        <v>2.66</v>
       </c>
       <c r="H26" t="n">
-        <v>4.62</v>
+        <v>2.07</v>
       </c>
       <c r="I26" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="J26" t="n">
-        <v>16</v>
+        <v>6.75</v>
       </c>
       <c r="K26" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="L26" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.8</v>
+        <v>2.48</v>
       </c>
       <c r="N26" t="n">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="O26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.33</v>
       </c>
-      <c r="P26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.26</v>
-      </c>
       <c r="U26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF26" t="n">
         <v>2.1</v>
       </c>
-      <c r="V26" t="n">
-        <v>2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AG26" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.4</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45035.66666666666</v>
+        <v>45035.67708333334</v>
       </c>
       <c r="C27" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.54</v>
+        <v>2.03</v>
       </c>
       <c r="G27" t="n">
-        <v>3.54</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.06</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="J27" t="n">
-        <v>9.75</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="L27" t="n">
-        <v>2.8</v>
+        <v>2.23</v>
       </c>
       <c r="M27" t="n">
-        <v>1.94</v>
+        <v>2.87</v>
       </c>
       <c r="N27" t="n">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="P27" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="R27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA27" t="n">
         <v>1.73</v>
       </c>
-      <c r="S27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="AB27" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD27" t="n">
         <v>1.27</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1.28</v>
       </c>
       <c r="AE27" t="n">
         <v>1.57</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AH27" t="n">
         <v>3.34</v>
@@ -3472,307 +3468,307 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Europe UEFA Champions League</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45035.66666666666</v>
+        <v>45035.70833333334</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Inter Milan</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="G28" t="n">
-        <v>3.42</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.56</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="K28" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M28" t="n">
-        <v>2.03</v>
+        <v>2.73</v>
       </c>
       <c r="N28" t="n">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="P28" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.31</v>
       </c>
-      <c r="T28" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U28" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="W28" t="n">
-        <v>2.46</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
         <v>1.73</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.56</v>
+        <v>1.06</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.29</v>
+        <v>2.79</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Europe UEFA Champions League</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45035.66666666666</v>
+        <v>45035.70833333334</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>3.94</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P29" t="n">
         <v>2.52</v>
       </c>
-      <c r="I29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J29" t="n">
-        <v>16</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q29" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="R29" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="T29" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="V29" t="n">
-        <v>2.67</v>
+        <v>0.33</v>
       </c>
       <c r="W29" t="n">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="X29" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.9</v>
+        <v>2.84</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45035.67708333334</v>
+        <v>45035.72916666666</v>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Atlético</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="G30" t="n">
-        <v>3.24</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="L30" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V30" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -3802,87 +3798,87 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45035.67708333334</v>
+        <v>45035.83333333334</v>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Deportes Quindío</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.82</v>
+        <v>1.7</v>
       </c>
       <c r="G31" t="n">
-        <v>2.81</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.29</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="J31" t="n">
-        <v>6.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O31" t="n">
         <v>1.44</v>
       </c>
-      <c r="L31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.57</v>
-      </c>
       <c r="P31" t="n">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="X31" t="n">
         <v>1.64</v>
       </c>
-      <c r="S31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Y31" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.79</v>
+        <v>3.27</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -3910,89 +3906,87 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Egypt Egyptian Premier League</t>
-        </is>
+      <c r="A32" t="n">
+        <v>7489</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45035.67708333334</v>
+        <v>45035.83333333334</v>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Tapatío</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Mineros de Zacatecas</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="G32" t="n">
-        <v>2.81</v>
+        <v>3.46</v>
       </c>
       <c r="H32" t="n">
-        <v>4.13</v>
+        <v>3.49</v>
       </c>
       <c r="I32" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K32" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="L32" t="n">
-        <v>2.23</v>
+        <v>3.75</v>
       </c>
       <c r="M32" t="n">
-        <v>2.9</v>
+        <v>1.79</v>
       </c>
       <c r="N32" t="n">
-        <v>1.36</v>
+        <v>1.94</v>
       </c>
       <c r="O32" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.37</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="S32" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="T32" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="U32" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="V32" t="n">
-        <v>1.54</v>
+        <v>2.13</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="X32" t="n">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.34</v>
+        <v>3.06</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -4022,221 +4016,111 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45035.79166666666</v>
+        <v>45035.85416666666</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>Universitario Popayán</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.66</v>
       </c>
       <c r="I33" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="J33" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="K33" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O33" t="n">
         <v>1.44</v>
       </c>
       <c r="P33" t="n">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="R33" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U33" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="W33" t="n">
-        <v>1.8</v>
+        <v>0.33</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.48</v>
+        <v>0.97</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.48</v>
+        <v>2.59</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>45035.875</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Sporting Cristal</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H34" t="n">
-        <v>15</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J34" t="n">
-        <v>13</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>2.14</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-04-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -610,8 +610,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>7489</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>45034.92013888889</v>
@@ -678,10 +680,10 @@
         <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="X2" t="n">
         <v>1.33</v>
@@ -788,10 +790,10 @@
         <v>1.41</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="X3" t="n">
         <v>1.65</v>
@@ -824,12 +826,14 @@
         <v>2.93</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>7489</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>45035.00347222222</v>
@@ -896,10 +900,10 @@
         <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="X4" t="n">
         <v>1.45</v>
@@ -958,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -979,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="N5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
         <v>1.45</v>
@@ -1006,10 +1010,10 @@
         <v>1.45</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="X5" t="n">
         <v>1.15</v>
@@ -1068,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.98</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1089,10 +1093,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="O6" t="n">
         <v>1.51</v>
@@ -1116,10 +1120,10 @@
         <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>1.45</v>
@@ -1152,7 +1156,7 @@
         <v>3.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7">
@@ -1178,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1199,10 +1203,10 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="N7" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O7" t="n">
         <v>1.45</v>
@@ -1226,10 +1230,10 @@
         <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>2.15</v>
@@ -1241,28 +1245,28 @@
         <v>4.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="8">
@@ -1288,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1309,10 +1313,10 @@
         <v>2.95</v>
       </c>
       <c r="M8" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
         <v>1.48</v>
@@ -1336,10 +1340,10 @@
         <v>1.28</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X8" t="n">
         <v>1.13</v>
@@ -1351,28 +1355,28 @@
         <v>2.87</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="9">
@@ -1618,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>2.93</v>
       </c>
       <c r="I11" t="n">
         <v>1.07</v>
@@ -1639,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="N11" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1728,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1749,10 +1753,10 @@
         <v>3.7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N12" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O12" t="n">
         <v>1.34</v>
@@ -1951,10 +1955,10 @@
         <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.64</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1969,10 +1973,10 @@
         <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="N14" t="n">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2058,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
         <v>1.04</v>
@@ -2079,10 +2083,10 @@
         <v>3.67</v>
       </c>
       <c r="M15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="N15" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.38</v>
@@ -2171,10 +2175,10 @@
         <v>3.9</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H16" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I16" t="n">
         <v>1.04</v>
@@ -2189,10 +2193,10 @@
         <v>4.08</v>
       </c>
       <c r="M16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N16" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2278,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="I17" t="n">
         <v>1.04</v>
@@ -2299,10 +2303,10 @@
         <v>3.9</v>
       </c>
       <c r="M17" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>2.17</v>
       </c>
       <c r="O17" t="n">
         <v>1.35</v>
@@ -2388,7 +2392,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="G18" t="n">
         <v>3.2</v>
@@ -2409,10 +2413,10 @@
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="N18" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="O18" t="n">
         <v>1.46</v>
@@ -2498,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I19" t="n">
         <v>1.06</v>
@@ -2519,10 +2523,10 @@
         <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
@@ -2608,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2629,10 +2633,10 @@
         <v>3.3</v>
       </c>
       <c r="M20" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2718,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G21" t="n">
         <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>4.25</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
@@ -2739,10 +2743,10 @@
         <v>2.95</v>
       </c>
       <c r="M21" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N21" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -2828,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2849,10 +2853,10 @@
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N22" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -2938,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2959,10 +2963,10 @@
         <v>2.8</v>
       </c>
       <c r="M23" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3051,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="I24" t="n">
         <v>1.07</v>
@@ -3069,10 +3073,10 @@
         <v>2.7</v>
       </c>
       <c r="M24" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N24" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O24" t="n">
         <v>1.47</v>
@@ -3111,28 +3115,28 @@
         <v>2.37</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="25">
@@ -3173,16 +3177,16 @@
         <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="L25" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="M25" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="N25" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O25" t="n">
         <v>1.53</v>
@@ -3221,25 +3225,25 @@
         <v>2.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -3268,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.85</v>
+        <v>4.14</v>
       </c>
       <c r="G26" t="n">
-        <v>2.66</v>
+        <v>2.85</v>
       </c>
       <c r="H26" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="I26" t="n">
         <v>1.1</v>
@@ -3283,16 +3287,16 @@
         <v>6.75</v>
       </c>
       <c r="K26" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="L26" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="M26" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="N26" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -3378,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>4.14</v>
       </c>
       <c r="I27" t="n">
         <v>1.14</v>
@@ -3393,16 +3397,16 @@
         <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="L27" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="M27" t="n">
-        <v>2.87</v>
+        <v>2.73</v>
       </c>
       <c r="N27" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.66</v>
@@ -3491,10 +3495,10 @@
         <v>2.25</v>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="I28" t="n">
         <v>1.12</v>
@@ -3551,28 +3555,28 @@
         <v>2.79</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="29">
@@ -3598,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I29" t="n">
         <v>1.06</v>
@@ -3619,10 +3623,10 @@
         <v>3.03</v>
       </c>
       <c r="M29" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="N29" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3711,10 +3715,10 @@
         <v>2.25</v>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="I30" t="n">
         <v>1.09</v>
@@ -3723,16 +3727,16 @@
         <v>7.75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="L30" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="M30" t="n">
-        <v>2.25</v>
+        <v>2.56</v>
       </c>
       <c r="N30" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="O30" t="n">
         <v>1.57</v>
@@ -3771,28 +3775,28 @@
         <v>2.82</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="31">
@@ -3821,10 +3825,10 @@
         <v>1.7</v>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="I31" t="n">
         <v>1.06</v>
@@ -3839,10 +3843,10 @@
         <v>2.95</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N31" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -3906,8 +3910,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>7489</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>45035.83333333334</v>
@@ -3998,19 +4004,19 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="33">
@@ -4099,22 +4105,22 @@
         <v>2.59</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-04-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1450,10 +1450,10 @@
         <v>1.42</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="X9" t="n">
         <v>1.22</v>
@@ -1560,10 +1560,10 @@
         <v>1.55</v>
       </c>
       <c r="V10" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="X10" t="n">
         <v>1.64</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
         <v>2.23</v>
@@ -2065,10 +2065,10 @@
         <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="I15" t="n">
         <v>1.04</v>
@@ -2083,10 +2083,10 @@
         <v>3.67</v>
       </c>
       <c r="M15" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O15" t="n">
         <v>1.38</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="G16" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="I16" t="n">
         <v>1.04</v>
@@ -2193,10 +2193,10 @@
         <v>4.08</v>
       </c>
       <c r="M16" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="N16" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="G17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="I17" t="n">
         <v>1.04</v>
@@ -2303,10 +2303,10 @@
         <v>3.9</v>
       </c>
       <c r="M17" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="N17" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="O17" t="n">
         <v>1.35</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
         <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,10 +2413,10 @@
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="O18" t="n">
         <v>1.46</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
         <v>1.06</v>
@@ -2523,7 +2523,7 @@
         <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="N19" t="n">
         <v>1.75</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G20" t="n">
         <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2633,10 +2633,10 @@
         <v>3.3</v>
       </c>
       <c r="M20" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="N20" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.25</v>
+        <v>4.09</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
@@ -2743,10 +2743,10 @@
         <v>2.95</v>
       </c>
       <c r="M21" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="N21" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="N22" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2963,10 +2963,10 @@
         <v>2.8</v>
       </c>
       <c r="M23" t="n">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="N23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -4123,10 +4123,10 @@
         <v>2.35</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
